--- a/TaiLieu/KeHoachThucHienDACS-Phong.xlsx
+++ b/TaiLieu/KeHoachThucHienDACS-Phong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\source\repos\TLMHoang\HeThongSoLienLac\TaiLieu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\New folder\TaiLieu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm US" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -318,6 +317,30 @@
   </si>
   <si>
     <t>Kiểm thử APP + fix Lỗi</t>
+  </si>
+  <si>
+    <t>Thiết Kế trang đăng nhập dành cho giáo viên</t>
+  </si>
+  <si>
+    <t>Thiết Kế trang thông tin bảo hiểm y tế</t>
+  </si>
+  <si>
+    <t>Thiết kế đăng nhập dành cho phụ huynh</t>
+  </si>
+  <si>
+    <t>Thiết kế trang nhập điểm dành cho giáo viên</t>
+  </si>
+  <si>
+    <t>Thiết Kế trang thông báo dành cho giáo viên</t>
+  </si>
+  <si>
+    <t>Code module Thông báo Giáo Viên</t>
+  </si>
+  <si>
+    <t>Code module Nhập điểm Giáo Viên</t>
+  </si>
+  <si>
+    <t>Thiết kế trang tra cứu thông tin giáo viên</t>
   </si>
 </sst>
 </file>
@@ -328,7 +351,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -337,7 +360,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -346,7 +369,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -355,7 +378,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -370,7 +393,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -378,7 +401,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -967,7 +990,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1186,9 +1209,63 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1201,120 +1278,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1324,45 +1388,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1651,75 +1677,75 @@
       <selection activeCell="I16" sqref="I16:N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="95" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="B5" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="112" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+    </row>
+    <row r="14" spans="1:15" ht="21" x14ac:dyDescent="0.4">
+      <c r="B14" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="I14" s="112" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="I14" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+    </row>
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="29" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B17" s="20">
         <v>1</v>
       </c>
@@ -1764,10 +1790,10 @@
       <c r="E17" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="96">
+      <c r="I17" s="114">
         <v>1</v>
       </c>
-      <c r="J17" s="99" t="s">
+      <c r="J17" s="115" t="s">
         <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1781,7 +1807,7 @@
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="22">
         <v>2</v>
       </c>
@@ -1794,8 +1820,8 @@
       <c r="E18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="97"/>
-      <c r="J18" s="100"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="97"/>
       <c r="K18" s="4" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1833,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="24">
         <v>3</v>
       </c>
@@ -1820,9 +1846,9 @@
       <c r="E19" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="97"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="92" t="s">
+      <c r="I19" s="94"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="100" t="s">
         <v>9</v>
       </c>
       <c r="L19" s="33" t="s">
@@ -1833,10 +1859,10 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I20" s="97"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="92"/>
+    <row r="20" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="94"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="33" t="s">
         <v>11</v>
       </c>
@@ -1845,9 +1871,9 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I21" s="97"/>
-      <c r="J21" s="100"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="94"/>
+      <c r="J21" s="97"/>
       <c r="K21" s="4" t="s">
         <v>12</v>
       </c>
@@ -1859,9 +1885,9 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I22" s="97"/>
-      <c r="J22" s="100"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="94"/>
+      <c r="J22" s="97"/>
       <c r="K22" s="4" t="s">
         <v>13</v>
       </c>
@@ -1873,9 +1899,9 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I23" s="98"/>
-      <c r="J23" s="101"/>
+    <row r="23" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="107"/>
+      <c r="J23" s="108"/>
       <c r="K23" s="15" t="s">
         <v>53</v>
       </c>
@@ -1887,11 +1913,11 @@
       </c>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I24" s="102">
+    <row r="24" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="103">
         <v>2</v>
       </c>
-      <c r="J24" s="104" t="s">
+      <c r="J24" s="105" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="10" t="s">
@@ -1903,9 +1929,9 @@
       <c r="M24" s="10"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I25" s="97"/>
-      <c r="J25" s="100"/>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I25" s="94"/>
+      <c r="J25" s="97"/>
       <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1915,9 +1941,9 @@
       <c r="M25" s="4"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I26" s="97"/>
-      <c r="J26" s="100"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I26" s="94"/>
+      <c r="J26" s="97"/>
       <c r="K26" s="4" t="s">
         <v>16</v>
       </c>
@@ -1927,9 +1953,9 @@
       <c r="M26" s="4"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I27" s="97"/>
-      <c r="J27" s="100"/>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I27" s="94"/>
+      <c r="J27" s="97"/>
       <c r="K27" s="4" t="s">
         <v>18</v>
       </c>
@@ -1939,9 +1965,9 @@
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I28" s="97"/>
-      <c r="J28" s="100"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I28" s="94"/>
+      <c r="J28" s="97"/>
       <c r="K28" s="4" t="s">
         <v>19</v>
       </c>
@@ -1951,10 +1977,10 @@
       <c r="M28" s="4"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I29" s="97"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="92" t="s">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I29" s="94"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="100" t="s">
         <v>20</v>
       </c>
       <c r="L29" s="33" t="s">
@@ -1963,34 +1989,34 @@
       <c r="M29" s="4"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="I30" s="97"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="92"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I30" s="94"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="100"/>
       <c r="L30" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I31" s="103"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="93"/>
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="104"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="111"/>
       <c r="L31" s="36" t="s">
         <v>11</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I32" s="106">
+    <row r="32" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I32" s="93">
         <v>3</v>
       </c>
-      <c r="J32" s="107" t="s">
+      <c r="J32" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="110" t="s">
+      <c r="K32" s="99" t="s">
         <v>21</v>
       </c>
       <c r="L32" s="32" t="s">
@@ -1999,29 +2025,29 @@
       <c r="M32" s="13"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I33" s="97"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="92"/>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I33" s="94"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="100"/>
       <c r="L33" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I34" s="97"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="92"/>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I34" s="94"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="100"/>
       <c r="L34" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I35" s="97"/>
-      <c r="J35" s="100"/>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I35" s="94"/>
+      <c r="J35" s="97"/>
       <c r="K35" s="4" t="s">
         <v>22</v>
       </c>
@@ -2031,9 +2057,9 @@
       <c r="M35" s="4"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I36" s="97"/>
-      <c r="J36" s="100"/>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I36" s="94"/>
+      <c r="J36" s="97"/>
       <c r="K36" s="4" t="s">
         <v>25</v>
       </c>
@@ -2043,9 +2069,9 @@
       <c r="M36" s="4"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="98"/>
-      <c r="J37" s="101"/>
+    <row r="37" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="107"/>
+      <c r="J37" s="108"/>
       <c r="K37" s="15" t="s">
         <v>28</v>
       </c>
@@ -2055,11 +2081,11 @@
       <c r="M37" s="15"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I38" s="102">
+    <row r="38" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="103">
         <v>4</v>
       </c>
-      <c r="J38" s="104" t="s">
+      <c r="J38" s="105" t="s">
         <v>55</v>
       </c>
       <c r="K38" s="10" t="s">
@@ -2071,9 +2097,9 @@
       <c r="M38" s="10"/>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I39" s="97"/>
-      <c r="J39" s="100"/>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I39" s="94"/>
+      <c r="J39" s="97"/>
       <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
@@ -2083,9 +2109,9 @@
       <c r="M39" s="4"/>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I40" s="97"/>
-      <c r="J40" s="100"/>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I40" s="94"/>
+      <c r="J40" s="97"/>
       <c r="K40" s="4" t="s">
         <v>26</v>
       </c>
@@ -2095,9 +2121,9 @@
       <c r="M40" s="4"/>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I41" s="97"/>
-      <c r="J41" s="100"/>
+    <row r="41" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I41" s="94"/>
+      <c r="J41" s="97"/>
       <c r="K41" s="4" t="s">
         <v>27</v>
       </c>
@@ -2107,9 +2133,9 @@
       <c r="M41" s="4"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I42" s="97"/>
-      <c r="J42" s="100"/>
+    <row r="42" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I42" s="94"/>
+      <c r="J42" s="97"/>
       <c r="K42" s="4" t="s">
         <v>29</v>
       </c>
@@ -2119,9 +2145,9 @@
       <c r="M42" s="4"/>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I43" s="103"/>
-      <c r="J43" s="105"/>
+    <row r="43" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I43" s="104"/>
+      <c r="J43" s="106"/>
       <c r="K43" s="8" t="s">
         <v>30</v>
       </c>
@@ -2131,11 +2157,11 @@
       <c r="M43" s="8"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I44" s="106">
+    <row r="44" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I44" s="93">
         <v>5</v>
       </c>
-      <c r="J44" s="107" t="s">
+      <c r="J44" s="96" t="s">
         <v>56</v>
       </c>
       <c r="K44" s="13" t="s">
@@ -2147,9 +2173,9 @@
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I45" s="97"/>
-      <c r="J45" s="100"/>
+    <row r="45" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I45" s="94"/>
+      <c r="J45" s="97"/>
       <c r="K45" s="41" t="s">
         <v>32</v>
       </c>
@@ -2159,9 +2185,9 @@
       <c r="M45" s="4"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I46" s="97"/>
-      <c r="J46" s="100"/>
+    <row r="46" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I46" s="94"/>
+      <c r="J46" s="97"/>
       <c r="K46" s="4" t="s">
         <v>33</v>
       </c>
@@ -2171,9 +2197,9 @@
       <c r="M46" s="4"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I47" s="98"/>
-      <c r="J47" s="101"/>
+    <row r="47" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I47" s="107"/>
+      <c r="J47" s="108"/>
       <c r="K47" s="15" t="s">
         <v>34</v>
       </c>
@@ -2183,11 +2209,11 @@
       <c r="M47" s="15"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="102">
+    <row r="48" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="103">
         <v>6</v>
       </c>
-      <c r="J48" s="104" t="s">
+      <c r="J48" s="105" t="s">
         <v>57</v>
       </c>
       <c r="K48" s="10" t="s">
@@ -2199,9 +2225,9 @@
       <c r="M48" s="10"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I49" s="97"/>
-      <c r="J49" s="100"/>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I49" s="94"/>
+      <c r="J49" s="97"/>
       <c r="K49" s="4" t="s">
         <v>36</v>
       </c>
@@ -2211,9 +2237,9 @@
       <c r="M49" s="4"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I50" s="97"/>
-      <c r="J50" s="100"/>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I50" s="94"/>
+      <c r="J50" s="97"/>
       <c r="K50" s="4" t="s">
         <v>37</v>
       </c>
@@ -2223,9 +2249,9 @@
       <c r="M50" s="4"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I51" s="103"/>
-      <c r="J51" s="105"/>
+    <row r="51" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I51" s="104"/>
+      <c r="J51" s="106"/>
       <c r="K51" s="8" t="s">
         <v>38</v>
       </c>
@@ -2235,14 +2261,14 @@
       <c r="M51" s="8"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I52" s="106">
-        <v>7</v>
-      </c>
-      <c r="J52" s="107" t="s">
+    <row r="52" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="93">
+        <v>7</v>
+      </c>
+      <c r="J52" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="K52" s="110" t="s">
+      <c r="K52" s="99" t="s">
         <v>39</v>
       </c>
       <c r="L52" s="32" t="s">
@@ -2251,34 +2277,34 @@
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I53" s="97"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="92"/>
+    <row r="53" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I53" s="94"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="100"/>
       <c r="L53" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I54" s="98"/>
-      <c r="J54" s="101"/>
-      <c r="K54" s="113"/>
+    <row r="54" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I54" s="107"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="109"/>
       <c r="L54" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M54" s="15"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I55" s="102">
+    <row r="55" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I55" s="103">
         <v>8</v>
       </c>
-      <c r="J55" s="104" t="s">
+      <c r="J55" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="K55" s="114" t="s">
+      <c r="K55" s="110" t="s">
         <v>40</v>
       </c>
       <c r="L55" s="35" t="s">
@@ -2287,29 +2313,29 @@
       <c r="M55" s="10"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I56" s="97"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="92"/>
+    <row r="56" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I56" s="94"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="100"/>
       <c r="L56" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M56" s="4"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I57" s="97"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="92"/>
+    <row r="57" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I57" s="94"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="100"/>
       <c r="L57" s="33" t="s">
         <v>11</v>
       </c>
       <c r="M57" s="4"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I58" s="97"/>
-      <c r="J58" s="100"/>
+    <row r="58" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I58" s="94"/>
+      <c r="J58" s="97"/>
       <c r="K58" s="4" t="s">
         <v>41</v>
       </c>
@@ -2319,9 +2345,9 @@
       <c r="M58" s="4"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I59" s="97"/>
-      <c r="J59" s="100"/>
+    <row r="59" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I59" s="94"/>
+      <c r="J59" s="97"/>
       <c r="K59" s="4" t="s">
         <v>23</v>
       </c>
@@ -2331,9 +2357,9 @@
       <c r="M59" s="4"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I60" s="103"/>
-      <c r="J60" s="105"/>
+    <row r="60" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I60" s="104"/>
+      <c r="J60" s="106"/>
       <c r="K60" s="8" t="s">
         <v>24</v>
       </c>
@@ -2343,11 +2369,11 @@
       <c r="M60" s="8"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I61" s="106">
+    <row r="61" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="93">
         <v>9</v>
       </c>
-      <c r="J61" s="107" t="s">
+      <c r="J61" s="96" t="s">
         <v>60</v>
       </c>
       <c r="K61" s="13" t="s">
@@ -2359,9 +2385,9 @@
       <c r="M61" s="13"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I62" s="97"/>
-      <c r="J62" s="100"/>
+    <row r="62" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I62" s="94"/>
+      <c r="J62" s="97"/>
       <c r="K62" s="4" t="s">
         <v>26</v>
       </c>
@@ -2371,9 +2397,9 @@
       <c r="M62" s="4"/>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I63" s="97"/>
-      <c r="J63" s="100"/>
+    <row r="63" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I63" s="94"/>
+      <c r="J63" s="97"/>
       <c r="K63" s="4" t="s">
         <v>27</v>
       </c>
@@ -2383,9 +2409,9 @@
       <c r="M63" s="4"/>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I64" s="97"/>
-      <c r="J64" s="100"/>
+    <row r="64" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I64" s="94"/>
+      <c r="J64" s="97"/>
       <c r="K64" s="4" t="s">
         <v>28</v>
       </c>
@@ -2395,9 +2421,9 @@
       <c r="M64" s="4"/>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I65" s="97"/>
-      <c r="J65" s="100"/>
+    <row r="65" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I65" s="94"/>
+      <c r="J65" s="97"/>
       <c r="K65" s="4" t="s">
         <v>29</v>
       </c>
@@ -2407,9 +2433,9 @@
       <c r="M65" s="4"/>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I66" s="98"/>
-      <c r="J66" s="101"/>
+    <row r="66" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I66" s="107"/>
+      <c r="J66" s="108"/>
       <c r="K66" s="15" t="s">
         <v>30</v>
       </c>
@@ -2419,11 +2445,11 @@
       <c r="M66" s="15"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I67" s="102">
-        <v>10</v>
-      </c>
-      <c r="J67" s="104" t="s">
+    <row r="67" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="103">
+        <v>10</v>
+      </c>
+      <c r="J67" s="105" t="s">
         <v>61</v>
       </c>
       <c r="K67" s="10" t="s">
@@ -2435,9 +2461,9 @@
       <c r="M67" s="10"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I68" s="97"/>
-      <c r="J68" s="100"/>
+    <row r="68" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I68" s="94"/>
+      <c r="J68" s="97"/>
       <c r="K68" s="17" t="s">
         <v>32</v>
       </c>
@@ -2447,9 +2473,9 @@
       <c r="M68" s="4"/>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I69" s="97"/>
-      <c r="J69" s="100"/>
+    <row r="69" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I69" s="94"/>
+      <c r="J69" s="97"/>
       <c r="K69" s="4" t="s">
         <v>33</v>
       </c>
@@ -2459,9 +2485,9 @@
       <c r="M69" s="4"/>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I70" s="103"/>
-      <c r="J70" s="105"/>
+    <row r="70" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I70" s="104"/>
+      <c r="J70" s="106"/>
       <c r="K70" s="8" t="s">
         <v>34</v>
       </c>
@@ -2471,11 +2497,11 @@
       <c r="M70" s="8"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I71" s="102">
-        <v>11</v>
-      </c>
-      <c r="J71" s="104" t="s">
+    <row r="71" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I71" s="103">
+        <v>11</v>
+      </c>
+      <c r="J71" s="105" t="s">
         <v>62</v>
       </c>
       <c r="K71" s="10" t="s">
@@ -2487,9 +2513,9 @@
       <c r="M71" s="10"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I72" s="97"/>
-      <c r="J72" s="100"/>
+    <row r="72" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I72" s="94"/>
+      <c r="J72" s="97"/>
       <c r="K72" s="4" t="s">
         <v>36</v>
       </c>
@@ -2499,9 +2525,9 @@
       <c r="M72" s="4"/>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I73" s="97"/>
-      <c r="J73" s="100"/>
+    <row r="73" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I73" s="94"/>
+      <c r="J73" s="97"/>
       <c r="K73" s="4" t="s">
         <v>37</v>
       </c>
@@ -2511,9 +2537,9 @@
       <c r="M73" s="4"/>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I74" s="103"/>
-      <c r="J74" s="105"/>
+    <row r="74" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I74" s="104"/>
+      <c r="J74" s="106"/>
       <c r="K74" s="8" t="s">
         <v>38</v>
       </c>
@@ -2523,14 +2549,14 @@
       <c r="M74" s="8"/>
       <c r="N74" s="9"/>
     </row>
-    <row r="75" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="I75" s="106">
+    <row r="75" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I75" s="93">
         <v>12</v>
       </c>
-      <c r="J75" s="107" t="s">
+      <c r="J75" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="K75" s="110" t="s">
+      <c r="K75" s="99" t="s">
         <v>42</v>
       </c>
       <c r="L75" s="32" t="s">
@@ -2539,29 +2565,47 @@
       <c r="M75" s="13"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I76" s="97"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="92"/>
+    <row r="76" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I76" s="94"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="100"/>
       <c r="L76" s="33" t="s">
         <v>10</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I77" s="108"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="111"/>
+    <row r="77" spans="9:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I77" s="95"/>
+      <c r="J77" s="98"/>
+      <c r="K77" s="101"/>
       <c r="L77" s="34" t="s">
         <v>11</v>
       </c>
       <c r="M77" s="18"/>
       <c r="N77" s="19"/>
     </row>
-    <row r="78" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="9:14" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="I17:I23"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="I24:I31"/>
+    <mergeCell ref="J24:J31"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I61:I66"/>
+    <mergeCell ref="J61:J66"/>
     <mergeCell ref="I75:I77"/>
     <mergeCell ref="J75:J77"/>
     <mergeCell ref="K75:K77"/>
@@ -2578,24 +2622,6 @@
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="J32:J37"/>
     <mergeCell ref="I38:I43"/>
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I61:I66"/>
-    <mergeCell ref="J61:J66"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="I17:I23"/>
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="I24:I31"/>
-    <mergeCell ref="J24:J31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2610,18 +2636,18 @@
       <selection activeCell="D39" sqref="D39:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="57.875" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
@@ -2641,11 +2667,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="115">
+    <row r="3" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="130">
         <v>1</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="131" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="58" t="s">
@@ -2659,9 +2685,9 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="116"/>
-      <c r="C4" s="119"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="55" t="s">
         <v>8</v>
       </c>
@@ -2673,10 +2699,10 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="116"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="92" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="117"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="100" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="43" t="s">
@@ -2687,10 +2713,10 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="116"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="92"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="117"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="43" t="s">
         <v>11</v>
       </c>
@@ -2699,9 +2725,9 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="116"/>
-      <c r="C7" s="119"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="117"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="55" t="s">
         <v>12</v>
       </c>
@@ -2713,9 +2739,9 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="116"/>
-      <c r="C8" s="119"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="117"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="55" t="s">
         <v>13</v>
       </c>
@@ -2727,9 +2753,9 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="117"/>
-      <c r="C9" s="120"/>
+    <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="59" t="s">
         <v>53</v>
       </c>
@@ -2741,11 +2767,11 @@
       </c>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="121">
+    <row r="10" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="126">
         <v>2</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="127" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="57" t="s">
@@ -2757,9 +2783,9 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="116"/>
-      <c r="C11" s="119"/>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="117"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="55" t="s">
         <v>15</v>
       </c>
@@ -2769,9 +2795,9 @@
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="116"/>
-      <c r="C12" s="119"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="117"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="55" t="s">
         <v>16</v>
       </c>
@@ -2781,9 +2807,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="116"/>
-      <c r="C13" s="119"/>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="117"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="55" t="s">
         <v>18</v>
       </c>
@@ -2793,9 +2819,9 @@
       <c r="F13" s="4"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="117"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="55" t="s">
         <v>19</v>
       </c>
@@ -2805,10 +2831,10 @@
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="116"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="92" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="117"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="100" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="43" t="s">
@@ -2817,34 +2843,34 @@
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="116"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="92"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="43" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="122"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="93"/>
+    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="47" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="125">
+    <row r="18" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="116">
         <v>3</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="122" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="42" t="s">
@@ -2853,34 +2879,34 @@
       <c r="F18" s="13"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="116"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="130"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="117"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="43" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="116"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="130"/>
+    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="56" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="121">
+    <row r="21" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="126">
         <v>4</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C21" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="122" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="46" t="s">
@@ -2889,21 +2915,21 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="2:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="117"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="130"/>
+    <row r="22" spans="2:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="124"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="123"/>
       <c r="E22" s="45" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="2:7" ht="16.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="121">
+    <row r="23" spans="2:7" ht="16.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="126">
         <v>5</v>
       </c>
-      <c r="C23" s="123" t="s">
+      <c r="C23" s="127" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="57" t="s">
@@ -2915,9 +2941,9 @@
       <c r="F23" s="57"/>
       <c r="G23" s="62"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="116"/>
-      <c r="C24" s="119"/>
+    <row r="24" spans="2:7" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="117"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="55" t="s">
         <v>25</v>
       </c>
@@ -2927,11 +2953,11 @@
       <c r="F24" s="55"/>
       <c r="G24" s="65"/>
     </row>
-    <row r="25" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="121">
+    <row r="25" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="126">
         <v>6</v>
       </c>
-      <c r="C25" s="123" t="s">
+      <c r="C25" s="127" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="57" t="s">
@@ -2943,9 +2969,9 @@
       <c r="F25" s="57"/>
       <c r="G25" s="62"/>
     </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="125"/>
-      <c r="C26" s="126"/>
+    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="116"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="55" t="s">
         <v>24</v>
       </c>
@@ -2955,9 +2981,9 @@
       <c r="F26" s="54"/>
       <c r="G26" s="66"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="117"/>
-      <c r="C27" s="120"/>
+    <row r="27" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="61" t="s">
         <v>30</v>
       </c>
@@ -2967,11 +2993,11 @@
       <c r="F27" s="59"/>
       <c r="G27" s="64"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="121">
-        <v>7</v>
-      </c>
-      <c r="C28" s="123" t="s">
+    <row r="28" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="126">
+        <v>7</v>
+      </c>
+      <c r="C28" s="127" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="59" t="s">
@@ -2983,9 +3009,9 @@
       <c r="F28" s="57"/>
       <c r="G28" s="62"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
+    <row r="29" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="116"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="55" t="s">
         <v>26</v>
       </c>
@@ -2995,9 +3021,9 @@
       <c r="F29" s="54"/>
       <c r="G29" s="66"/>
     </row>
-    <row r="30" spans="2:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="117"/>
-      <c r="C30" s="120"/>
+    <row r="30" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="124"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="59" t="s">
         <v>27</v>
       </c>
@@ -3007,11 +3033,11 @@
       <c r="F30" s="59"/>
       <c r="G30" s="64"/>
     </row>
-    <row r="31" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="121">
+    <row r="31" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="126">
         <v>8</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="127" t="s">
         <v>59</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -3023,9 +3049,9 @@
       <c r="F31" s="57"/>
       <c r="G31" s="62"/>
     </row>
-    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="122"/>
-      <c r="C32" s="124"/>
+    <row r="32" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="8" t="s">
         <v>33</v>
       </c>
@@ -3035,11 +3061,11 @@
       <c r="F32" s="61"/>
       <c r="G32" s="63"/>
     </row>
-    <row r="33" spans="2:7" ht="29.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="125">
+    <row r="33" spans="2:7" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="116">
         <v>9</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="119" t="s">
         <v>60</v>
       </c>
       <c r="D33" s="68" t="s">
@@ -3051,9 +3077,9 @@
       <c r="F33" s="54"/>
       <c r="G33" s="66"/>
     </row>
-    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="117"/>
-      <c r="C34" s="120"/>
+    <row r="34" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="124"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="59" t="s">
         <v>34</v>
       </c>
@@ -3063,11 +3089,11 @@
       <c r="F34" s="59"/>
       <c r="G34" s="64"/>
     </row>
-    <row r="35" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="121">
-        <v>10</v>
-      </c>
-      <c r="C35" s="123" t="s">
+    <row r="35" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="126">
+        <v>10</v>
+      </c>
+      <c r="C35" s="127" t="s">
         <v>61</v>
       </c>
       <c r="D35" s="57" t="s">
@@ -3079,9 +3105,9 @@
       <c r="F35" s="57"/>
       <c r="G35" s="62"/>
     </row>
-    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="117"/>
-      <c r="C36" s="120"/>
+    <row r="36" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="124"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="59" t="s">
         <v>67</v>
       </c>
@@ -3091,11 +3117,11 @@
       <c r="F36" s="59"/>
       <c r="G36" s="64"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="121">
-        <v>11</v>
-      </c>
-      <c r="C37" s="123" t="s">
+    <row r="37" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="126">
+        <v>11</v>
+      </c>
+      <c r="C37" s="127" t="s">
         <v>62</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -3107,9 +3133,9 @@
       <c r="F37" s="57"/>
       <c r="G37" s="62"/>
     </row>
-    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="122"/>
-      <c r="C38" s="124"/>
+    <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="61" t="s">
         <v>69</v>
       </c>
@@ -3119,14 +3145,14 @@
       <c r="F38" s="61"/>
       <c r="G38" s="63"/>
     </row>
-    <row r="39" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="125">
+    <row r="39" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="116">
         <v>12</v>
       </c>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="99" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="42" t="s">
@@ -3135,29 +3161,42 @@
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="116"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="92"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="117"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="43" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="127"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="111"/>
+    <row r="41" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="118"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="44" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="D39:D41"/>
@@ -3174,19 +3213,6 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3195,23 +3221,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:H78"/>
+  <dimension ref="C5:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:H77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="43.5" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="38" t="s">
         <v>0</v>
       </c>
@@ -3231,11 +3257,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="96">
+    <row r="7" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="114">
         <v>1</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="115" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="72" t="s">
@@ -3244,86 +3270,86 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="157">
+      <c r="G7" s="136">
         <v>1</v>
       </c>
-      <c r="H7" s="153"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="97"/>
-      <c r="D8" s="100"/>
+      <c r="H7" s="132"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="94"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="158"/>
-      <c r="H8" s="154"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="97"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="92" t="s">
+      <c r="G8" s="137"/>
+      <c r="H8" s="133"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="94"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="100" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="158"/>
-      <c r="H9" s="154"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="97"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="92"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="133"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="94"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="158"/>
-      <c r="H10" s="154"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="97"/>
-      <c r="D11" s="100"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="133"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="94"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="158"/>
-      <c r="H11" s="154"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="97"/>
-      <c r="D12" s="100"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="133"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="94"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="158"/>
-      <c r="H12" s="154"/>
-    </row>
-    <row r="13" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="98"/>
-      <c r="D13" s="101"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="133"/>
+    </row>
+    <row r="13" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="73" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="159"/>
-      <c r="H13" s="155"/>
-    </row>
-    <row r="14" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="102">
+      <c r="G13" s="138"/>
+      <c r="H13" s="134"/>
+    </row>
+    <row r="14" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="103">
         <v>2</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="105" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="74" t="s">
@@ -3332,106 +3358,106 @@
       <c r="F14" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="160"/>
-      <c r="H14" s="156"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="97"/>
-      <c r="D15" s="100"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="135"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="94"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="161"/>
-      <c r="H15" s="154"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="97"/>
-      <c r="D16" s="100"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="133"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="94"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="161"/>
-      <c r="H16" s="154"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="97"/>
-      <c r="D17" s="100"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="133"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="94"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="154"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="97"/>
-      <c r="D18" s="100"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="133"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="94"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="154"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="97"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="92" t="s">
+      <c r="G18" s="140"/>
+      <c r="H18" s="133"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="94"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="100" t="s">
         <v>70</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="154"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C20" s="97"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="92"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="133"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="94"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="161"/>
-      <c r="H20" s="154"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C21" s="97"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="92"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="133"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="94"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="100"/>
       <c r="F21" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="161"/>
-      <c r="H21" s="154"/>
-    </row>
-    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="103"/>
-      <c r="D22" s="105"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="133"/>
+    </row>
+    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="104"/>
+      <c r="D22" s="106"/>
       <c r="E22" s="75" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="155"/>
-    </row>
-    <row r="23" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="141">
+      <c r="G22" s="141"/>
+      <c r="H22" s="134"/>
+    </row>
+    <row r="23" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="150">
         <v>3</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="143" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="70" t="s">
@@ -3440,666 +3466,772 @@
       <c r="F23" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="134"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C24" s="142"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="152" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="146"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="151"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="142" t="s">
         <v>73</v>
       </c>
       <c r="F24" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="135"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C25" s="142"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="152"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="147"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="151"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="142"/>
       <c r="F25" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="135"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C26" s="142"/>
-      <c r="D26" s="132"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="147"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="151"/>
+      <c r="D26" s="144"/>
       <c r="E26" s="71" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="135"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="142"/>
-      <c r="D27" s="132"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="147"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="151"/>
+      <c r="D27" s="144"/>
       <c r="E27" s="71" t="s">
         <v>75</v>
       </c>
       <c r="F27" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="135"/>
-    </row>
-    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="149"/>
-      <c r="D28" s="138"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="147"/>
+    </row>
+    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="154"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="77" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="138"/>
-      <c r="H28" s="140"/>
-    </row>
-    <row r="29" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="141">
+      <c r="G28" s="145"/>
+      <c r="H28" s="148"/>
+    </row>
+    <row r="29" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="150">
         <v>4</v>
       </c>
-      <c r="D29" s="131" t="s">
+      <c r="D29" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="151" t="s">
+      <c r="E29" s="155" t="s">
         <v>77</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="134"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C30" s="142"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="152"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="146"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="151"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="142"/>
       <c r="F30" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="135"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="142"/>
-      <c r="D31" s="132"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="147"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="151"/>
+      <c r="D31" s="144"/>
       <c r="E31" s="71" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="135"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="142"/>
-      <c r="D32" s="132"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="147"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="151"/>
+      <c r="D32" s="144"/>
       <c r="E32" s="71" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="135"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="142"/>
-      <c r="D33" s="132"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="147"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="151"/>
+      <c r="D33" s="144"/>
       <c r="E33" s="76" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="135"/>
-    </row>
-    <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="150"/>
-      <c r="D34" s="133"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="147"/>
+    </row>
+    <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="152"/>
+      <c r="D34" s="153"/>
       <c r="E34" s="78" t="s">
         <v>81</v>
       </c>
       <c r="F34" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="136"/>
-    </row>
-    <row r="35" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="148">
+      <c r="G34" s="153"/>
+      <c r="H34" s="149"/>
+    </row>
+    <row r="35" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="156">
         <v>5</v>
       </c>
-      <c r="D35" s="137" t="s">
+      <c r="D35" s="157" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="137"/>
-      <c r="H35" s="139"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="142"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="71" t="s">
+      <c r="F35" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="157"/>
+      <c r="H35" s="163"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="157"/>
+      <c r="H36" s="163"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="156"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="157"/>
+      <c r="H37" s="163"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="151"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="132"/>
-      <c r="H36" s="135"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="142"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="71" t="s">
+      <c r="F38" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="144"/>
+      <c r="H38" s="147"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="151"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="F37" s="84"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="135"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="142"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="71" t="s">
+      <c r="F39" s="84"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="147"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="151"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="135"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="142"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="71" t="s">
+      <c r="F40" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="144"/>
+      <c r="H40" s="147"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="151"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="132"/>
-      <c r="H39" s="135"/>
-    </row>
-    <row r="40" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="149"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="77" t="s">
+      <c r="F41" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="144"/>
+      <c r="H41" s="147"/>
+    </row>
+    <row r="42" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="154"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="138"/>
-      <c r="H40" s="140"/>
-    </row>
-    <row r="41" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="141">
+      <c r="F42" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="145"/>
+      <c r="H42" s="148"/>
+    </row>
+    <row r="43" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="150">
         <v>6</v>
       </c>
-      <c r="D41" s="131" t="s">
+      <c r="D43" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E43" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="134"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="142"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="132"/>
-      <c r="H42" s="135"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="142"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="71" t="s">
+      <c r="F43" s="83"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="146"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="156"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="157"/>
+      <c r="H44" s="163"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="151"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="144"/>
+      <c r="H45" s="147"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="151"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="132"/>
-      <c r="H43" s="135"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="142"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="71" t="s">
+      <c r="F46" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="144"/>
+      <c r="H46" s="147"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="151"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="144"/>
+      <c r="H47" s="147"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="151"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="132"/>
-      <c r="H44" s="135"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="142"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="76" t="s">
+      <c r="F48" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="144"/>
+      <c r="H48" s="147"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="151"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="F45" s="84"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="135"/>
-    </row>
-    <row r="46" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="150"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="78" t="s">
+      <c r="F49" s="84"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="147"/>
+    </row>
+    <row r="50" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="152"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="F46" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="133"/>
-      <c r="H46" s="136"/>
-    </row>
-    <row r="47" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="148">
-        <v>7</v>
-      </c>
-      <c r="D47" s="137" t="s">
+      <c r="F50" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="153"/>
+      <c r="H50" s="149"/>
+    </row>
+    <row r="51" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="156">
+        <v>7</v>
+      </c>
+      <c r="D51" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="90" t="s">
+      <c r="E51" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="139"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C48" s="142"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="71" t="s">
+      <c r="F51" s="87"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="163"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="151"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="132"/>
-      <c r="H48" s="135"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C49" s="142"/>
-      <c r="D49" s="132"/>
-      <c r="E49" s="71" t="s">
+      <c r="F52" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="144"/>
+      <c r="H52" s="147"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="151"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="132"/>
-      <c r="H49" s="135"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C50" s="142"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="132"/>
-      <c r="H50" s="135"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="142"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="82" t="s">
+      <c r="F53" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="144"/>
+      <c r="H53" s="147"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="151"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="144"/>
+      <c r="H54" s="147"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="151"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="144"/>
+      <c r="H55" s="147"/>
+    </row>
+    <row r="56" spans="3:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="151"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="144"/>
+      <c r="H56" s="147"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="151"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="135"/>
-    </row>
-    <row r="52" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="149"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="77" t="s">
+      <c r="F57" s="84"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="147"/>
+    </row>
+    <row r="58" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="154"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="138"/>
-      <c r="H52" s="140"/>
-    </row>
-    <row r="53" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="141">
+      <c r="F58" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="145"/>
+      <c r="H58" s="148"/>
+    </row>
+    <row r="59" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="150">
         <v>8</v>
       </c>
-      <c r="D53" s="131" t="s">
+      <c r="D59" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="91" t="s">
+      <c r="E59" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="134"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="142"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="71" t="s">
+      <c r="F59" s="83"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="146"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="151"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="132"/>
-      <c r="H54" s="135"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="142"/>
-      <c r="D55" s="132"/>
-      <c r="E55" s="71" t="s">
+      <c r="F60" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="144"/>
+      <c r="H60" s="147"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="151"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="132"/>
-      <c r="H55" s="135"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="142"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="82" t="s">
+      <c r="F61" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="144"/>
+      <c r="H61" s="147"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="151"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F56" s="84"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="135"/>
-    </row>
-    <row r="57" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="150"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="78" t="s">
+      <c r="F62" s="84"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="147"/>
+    </row>
+    <row r="63" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="152"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="133"/>
-      <c r="H57" s="136"/>
-    </row>
-    <row r="58" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="148">
+      <c r="F63" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="153"/>
+      <c r="H63" s="149"/>
+    </row>
+    <row r="64" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="156">
         <v>9</v>
       </c>
-      <c r="D58" s="137" t="s">
+      <c r="D64" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="90" t="s">
+      <c r="E64" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="83"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="139"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="142"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="71" t="s">
+      <c r="F64" s="83"/>
+      <c r="G64" s="157"/>
+      <c r="H64" s="163"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="151"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="F59" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="132"/>
-      <c r="H59" s="135"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="142"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="71" t="s">
+      <c r="F65" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="144"/>
+      <c r="H65" s="147"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="151"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="132"/>
-      <c r="H60" s="135"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C61" s="142"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="82" t="s">
+      <c r="F66" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="144"/>
+      <c r="H66" s="147"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="151"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="84"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="135"/>
-    </row>
-    <row r="62" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="149"/>
-      <c r="D62" s="138"/>
-      <c r="E62" s="77" t="s">
+      <c r="F67" s="84"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="147"/>
+    </row>
+    <row r="68" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="154"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="138"/>
-      <c r="H62" s="140"/>
-    </row>
-    <row r="63" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="141">
-        <v>10</v>
-      </c>
-      <c r="D63" s="131" t="s">
+      <c r="F68" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="145"/>
+      <c r="H68" s="148"/>
+    </row>
+    <row r="69" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="150">
+        <v>10</v>
+      </c>
+      <c r="D69" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="91" t="s">
+      <c r="E69" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F63" s="83"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="134"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="142"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="71" t="s">
+      <c r="F69" s="83"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="146"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="151"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="F64" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="132"/>
-      <c r="H64" s="135"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="142"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="71" t="s">
+      <c r="F70" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="144"/>
+      <c r="H70" s="147"/>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="151"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="132"/>
-      <c r="H65" s="135"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="142"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="82" t="s">
+      <c r="F71" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="144"/>
+      <c r="H71" s="147"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="151"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="84"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="135"/>
-    </row>
-    <row r="67" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="150"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="78" t="s">
+      <c r="F72" s="84"/>
+      <c r="G72" s="144"/>
+      <c r="H72" s="147"/>
+    </row>
+    <row r="73" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="152"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="F67" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="136"/>
-    </row>
-    <row r="68" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="148">
-        <v>11</v>
-      </c>
-      <c r="D68" s="137" t="s">
+      <c r="F73" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="153"/>
+      <c r="H73" s="149"/>
+    </row>
+    <row r="74" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="156">
+        <v>11</v>
+      </c>
+      <c r="D74" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="90" t="s">
+      <c r="E74" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="139"/>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C69" s="142"/>
-      <c r="D69" s="132"/>
-      <c r="E69" s="71" t="s">
+      <c r="F74" s="87"/>
+      <c r="G74" s="157"/>
+      <c r="H74" s="163"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="151"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F69" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="132"/>
-      <c r="H69" s="135"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C70" s="142"/>
-      <c r="D70" s="132"/>
-      <c r="E70" s="71" t="s">
+      <c r="F75" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="144"/>
+      <c r="H75" s="147"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="151"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="F70" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="132"/>
-      <c r="H70" s="135"/>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="142"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="82" t="s">
+      <c r="F76" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="144"/>
+      <c r="H76" s="147"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="151"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F71" s="84"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="135"/>
-    </row>
-    <row r="72" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="149"/>
-      <c r="D72" s="138"/>
-      <c r="E72" s="77" t="s">
+      <c r="F77" s="84"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="147"/>
+    </row>
+    <row r="78" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="154"/>
+      <c r="D78" s="145"/>
+      <c r="E78" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="F72" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G72" s="138"/>
-      <c r="H72" s="140"/>
-    </row>
-    <row r="73" spans="3:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="141">
+      <c r="F78" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="145"/>
+      <c r="H78" s="148"/>
+    </row>
+    <row r="79" spans="3:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="150">
         <v>12</v>
       </c>
-      <c r="D73" s="131" t="s">
+      <c r="D79" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="91" t="s">
+      <c r="E79" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="131"/>
-      <c r="H73" s="134"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C74" s="142"/>
-      <c r="D74" s="132"/>
-      <c r="E74" s="146" t="s">
+      <c r="F79" s="83"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="146"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="151"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="132"/>
-      <c r="H74" s="135"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C75" s="142"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="147"/>
-      <c r="F75" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="132"/>
-      <c r="H75" s="135"/>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C76" s="142"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="82" t="s">
+      <c r="F80" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="144"/>
+      <c r="H80" s="147"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="151"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="162"/>
+      <c r="F81" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="144"/>
+      <c r="H81" s="147"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="151"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F76" s="84"/>
-      <c r="G76" s="132"/>
-      <c r="H76" s="135"/>
-    </row>
-    <row r="77" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="143"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="81" t="s">
+      <c r="F82" s="84"/>
+      <c r="G82" s="144"/>
+      <c r="H82" s="147"/>
+    </row>
+    <row r="83" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="158"/>
+      <c r="D83" s="159"/>
+      <c r="E83" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G77" s="144"/>
-      <c r="H77" s="145"/>
-    </row>
-    <row r="78" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F83" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="159"/>
+      <c r="H83" s="160"/>
+    </row>
+    <row r="84" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="D14:D22"/>
+    <mergeCell ref="H59:H63"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="D79:D83"/>
+    <mergeCell ref="G79:G83"/>
+    <mergeCell ref="H79:H83"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C64:C68"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="C69:C73"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="C74:C78"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G35:G42"/>
+    <mergeCell ref="G59:G63"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C35:C42"/>
+    <mergeCell ref="D35:D42"/>
+    <mergeCell ref="H35:H42"/>
+    <mergeCell ref="H43:H50"/>
     <mergeCell ref="H7:H13"/>
     <mergeCell ref="H14:H22"/>
     <mergeCell ref="G7:G13"/>
@@ -4107,46 +4239,12 @@
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="G23:G28"/>
     <mergeCell ref="H23:H28"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G35:G40"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D67"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="D73:D77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="H73:H77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="H68:H72"/>
-    <mergeCell ref="G68:G72"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="H63:H67"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="G53:G57"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="G47:G52"/>
-    <mergeCell ref="H47:H52"/>
-    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="D14:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
